--- a/Tarea 03/muros.xlsx
+++ b/Tarea 03/muros.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{376D4F42-6667-4D8F-B529-218ED8A7B2A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PIERS" sheetId="1" r:id="rId1"/>
+    <sheet name="EJE Y" sheetId="2" r:id="rId2"/>
+    <sheet name="EJE X" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,10 +21,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+  <si>
+    <t>Ejes</t>
+  </si>
+  <si>
+    <t>N° pier</t>
+  </si>
+  <si>
+    <t>A entre 1-2</t>
+  </si>
+  <si>
+    <t>M1Y</t>
+  </si>
+  <si>
+    <t>Largo (cm)</t>
+  </si>
+  <si>
+    <t>A entre 2-3</t>
+  </si>
+  <si>
+    <t>A entre 3-4</t>
+  </si>
+  <si>
+    <t>B entre 1-2</t>
+  </si>
+  <si>
+    <t>B entre 3-4</t>
+  </si>
+  <si>
+    <t>C entre 1-2</t>
+  </si>
+  <si>
+    <t>C entre 2-3</t>
+  </si>
+  <si>
+    <t>C entre 3-4</t>
+  </si>
+  <si>
+    <t>M2Y</t>
+  </si>
+  <si>
+    <t>M3Y</t>
+  </si>
+  <si>
+    <t>M4Y</t>
+  </si>
+  <si>
+    <t>M5Y</t>
+  </si>
+  <si>
+    <t>M6Y</t>
+  </si>
+  <si>
+    <t>M7Y</t>
+  </si>
+  <si>
+    <t>M8Y</t>
+  </si>
+  <si>
+    <t>Alto (cm)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +121,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +423,671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A635C-89FC-44BE-82EF-59DE5B63DCE1}">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>390</v>
+      </c>
+      <c r="E3" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>225</v>
+      </c>
+      <c r="E4" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>390</v>
+      </c>
+      <c r="E5" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>390</v>
+      </c>
+      <c r="E6" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>390</v>
+      </c>
+      <c r="E7" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>390</v>
+      </c>
+      <c r="E8" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>225</v>
+      </c>
+      <c r="E9" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>390</v>
+      </c>
+      <c r="E10" s="2">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35158A57-6756-49F2-BC24-2FD64A7749BD}">
+  <dimension ref="A2:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>"M"&amp;A3&amp;"X"</f>
+        <v>M1X</v>
+      </c>
+      <c r="D3" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4:C45" si="0">"M"&amp;A4&amp;"X"</f>
+        <v>M2X</v>
+      </c>
+      <c r="D4" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A50" si="1">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M3X</v>
+      </c>
+      <c r="D5" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M4X</v>
+      </c>
+      <c r="D6" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M5X</v>
+      </c>
+      <c r="D7" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M6X</v>
+      </c>
+      <c r="D8" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M7X</v>
+      </c>
+      <c r="D9" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M8X</v>
+      </c>
+      <c r="D10" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M9X</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M10X</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M11X</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M12X</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M13X</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M14X</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M15X</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M16X</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M17X</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M18X</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M19X</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M20X</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M21X</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M22X</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M23X</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M24X</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M25X</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M26X</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M27X</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M28X</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M29X</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M30X</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M31X</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M32X</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M33X</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M34X</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M35X</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M36X</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M37X</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M38X</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M39X</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M40X</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M41X</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M42X</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>M43X</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tarea 03/muros.xlsx
+++ b/Tarea 03/muros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{376D4F42-6667-4D8F-B529-218ED8A7B2A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1F85826-9FEF-443E-A2DC-CD896B1AA116}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Ejes</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>Alto (cm)</t>
+  </si>
+  <si>
+    <t>1 entre A y B</t>
+  </si>
+  <si>
+    <t>2 entre A y B</t>
+  </si>
+  <si>
+    <t>3 entre A y B</t>
+  </si>
+  <si>
+    <t>4 entre A y B</t>
+  </si>
+  <si>
+    <t>1 entre B y C</t>
+  </si>
+  <si>
+    <t>2 entre B y C</t>
+  </si>
+  <si>
+    <t>4 entre B y C</t>
   </si>
 </sst>
 </file>
@@ -426,7 +447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -439,24 +462,24 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -467,10 +490,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>390</v>
@@ -481,10 +504,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>225</v>
@@ -495,10 +518,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>390</v>
@@ -509,10 +532,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>390</v>
@@ -523,10 +546,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>390</v>
@@ -537,10 +560,10 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>390</v>
@@ -551,10 +574,10 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>225</v>
@@ -565,10 +588,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>390</v>
@@ -584,507 +607,434 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35158A57-6756-49F2-BC24-2FD64A7749BD}">
-  <dimension ref="A2:D45"/>
+  <dimension ref="B2:XFD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="str">
+        <f>"M"&amp;XFD3&amp;"X"</f>
+        <v>M1X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>330</v>
+      </c>
+      <c r="E3" s="2">
+        <v>94.6</v>
+      </c>
+      <c r="XFD3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="str">
+        <f>"M"&amp;XFD4&amp;"X"</f>
+        <v>M2X</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>112.25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD4" s="2">
+        <f>XFD3+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <f>"M"&amp;A3&amp;"X"</f>
-        <v>M1X</v>
-      </c>
-      <c r="D3" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>"M"&amp;XFD5&amp;"X"</f>
+        <v>M3X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>97.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD5" s="2">
+        <f>XFD4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="str">
+        <f>"M"&amp;XFD6&amp;"X"</f>
+        <v>M4X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>330</v>
+      </c>
+      <c r="E6" s="2">
+        <v>52</v>
+      </c>
+      <c r="XFD6" s="2">
+        <f>XFD5+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="str">
+        <f>"M"&amp;XFD7&amp;"X"</f>
+        <v>M5X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>382</v>
+      </c>
+      <c r="E7" s="2">
+        <v>94.6</v>
+      </c>
+      <c r="XFD7" s="2">
+        <f>XFD6+1</f>
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:C45" si="0">"M"&amp;A4&amp;"X"</f>
-        <v>M2X</v>
-      </c>
-      <c r="D4" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <f t="shared" ref="A5:A50" si="1">A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="8" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="str">
+        <f>"M"&amp;XFD8&amp;"X"</f>
+        <v>M6X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD8" s="2">
+        <f>XFD7+1</f>
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M3X</v>
-      </c>
-      <c r="D5" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="9" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="str">
+        <f>"M"&amp;XFD9&amp;"X"</f>
+        <v>M7X</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>164.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD9" s="2">
+        <f>XFD8+1</f>
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M4X</v>
-      </c>
-      <c r="D6" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="10" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="str">
+        <f>"M"&amp;XFD10&amp;"X"</f>
+        <v>M8X</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>510</v>
+      </c>
+      <c r="E10" s="2">
+        <v>52</v>
+      </c>
+      <c r="XFD10" s="2">
+        <f>XFD9+1</f>
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M5X</v>
-      </c>
-      <c r="D7" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="11" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="str">
+        <f>"M"&amp;XFD11&amp;"X"</f>
+        <v>M9X</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <f>113.4+94.6</f>
+        <v>208</v>
+      </c>
+      <c r="XFD11" s="2">
+        <f>XFD10+1</f>
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M6X</v>
-      </c>
-      <c r="D8" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="12" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="str">
+        <f>"M"&amp;XFD12&amp;"X"</f>
+        <v>M10X</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>232</v>
+      </c>
+      <c r="E12" s="2">
+        <v>260</v>
+      </c>
+      <c r="XFD12" s="2">
+        <f>XFD11+1</f>
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M7X</v>
-      </c>
-      <c r="D9" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="13" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="str">
+        <f>"M"&amp;XFD13&amp;"X"</f>
+        <v>M11X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>277</v>
+      </c>
+      <c r="E13" s="2">
+        <v>260</v>
+      </c>
+      <c r="XFD13" s="2">
+        <f>XFD12+1</f>
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M8X</v>
-      </c>
-      <c r="D10" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M9X</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M10X</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M11X</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="14" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="str">
+        <f>"M"&amp;XFD14&amp;"X"</f>
+        <v>M12X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>232</v>
+      </c>
+      <c r="E14" s="2">
+        <v>260</v>
+      </c>
+      <c r="XFD14" s="2">
+        <f>XFD13+1</f>
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M12X</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="15" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="str">
+        <f>"M"&amp;XFD15&amp;"X"</f>
+        <v>M13X</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>330</v>
+      </c>
+      <c r="E15" s="2">
+        <v>94.6</v>
+      </c>
+      <c r="XFD15" s="2">
+        <f>XFD14+1</f>
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M13X</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="16" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="str">
+        <f>"M"&amp;XFD16&amp;"X"</f>
+        <v>M14X</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD16" s="2">
+        <f>XFD15+1</f>
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M14X</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="17" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="str">
+        <f>"M"&amp;XFD17&amp;"X"</f>
+        <v>M15X</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD17" s="2">
+        <f>XFD16+1</f>
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M15X</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="18" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="str">
+        <f>"M"&amp;XFD18&amp;"X"</f>
+        <v>M16X</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>330</v>
+      </c>
+      <c r="E18" s="2">
+        <v>52</v>
+      </c>
+      <c r="XFD18" s="2">
+        <f>XFD17+1</f>
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M16X</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="19" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="str">
+        <f>"M"&amp;XFD19&amp;"X"</f>
+        <v>M17X</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2">
+        <f>113.4+94.6</f>
+        <v>208</v>
+      </c>
+      <c r="XFD19" s="2">
+        <f>XFD18+1</f>
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M17X</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="20" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="str">
+        <f>"M"&amp;XFD20&amp;"X"</f>
+        <v>M18X</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>322</v>
+      </c>
+      <c r="E20" s="2">
+        <v>94.6</v>
+      </c>
+      <c r="XFD20" s="2">
+        <f>XFD19+1</f>
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M18X</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="21" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="str">
+        <f>"M"&amp;XFD21&amp;"X"</f>
+        <v>M19X</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2">
+        <v>164</v>
+      </c>
+      <c r="E21" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD21" s="2">
+        <f>XFD20+1</f>
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M19X</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="22" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="str">
+        <f>"M"&amp;XFD22&amp;"X"</f>
+        <v>M20X</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2">
+        <v>113.4</v>
+      </c>
+      <c r="XFD22" s="2">
+        <f>XFD21+1</f>
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M20X</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="23" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="str">
+        <f>"M"&amp;XFD23&amp;"X"</f>
+        <v>M21X</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>510</v>
+      </c>
+      <c r="E23" s="2">
+        <v>52</v>
+      </c>
+      <c r="XFD23" s="2">
+        <f>XFD22+1</f>
         <v>21</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M21X</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M22X</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M23X</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M24X</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M25X</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M26X</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M27X</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M28X</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M29X</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M30X</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M31X</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M32X</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M33X</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M34X</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M35X</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M36X</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M37X</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M38X</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M39X</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M40X</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M41X</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M42X</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M43X</v>
       </c>
     </row>
   </sheetData>

--- a/Tarea 03/muros.xlsx
+++ b/Tarea 03/muros.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1F85826-9FEF-443E-A2DC-CD896B1AA116}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0F4BAEA-BF49-4220-837B-945F7306AEEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIERS" sheetId="1" r:id="rId1"/>
     <sheet name="EJE Y" sheetId="2" r:id="rId2"/>
     <sheet name="EJE X" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Ejes</t>
   </si>
@@ -103,12 +104,72 @@
   </si>
   <si>
     <t>4 entre B y C</t>
+  </si>
+  <si>
+    <t>Geometría</t>
+  </si>
+  <si>
+    <t>$\phi$</t>
+  </si>
+  <si>
+    <t>Piers</t>
+  </si>
+  <si>
+    <t>M1Y, M3Y, M4Y, M5, M6Y, M8Y</t>
+  </si>
+  <si>
+    <t>M2Y, M7Y</t>
+  </si>
+  <si>
+    <t>M1X, M13X</t>
+  </si>
+  <si>
+    <t>M2X, M14X</t>
+  </si>
+  <si>
+    <t>M3X, M6X, M15X</t>
+  </si>
+  <si>
+    <t>M4X, M16X</t>
+  </si>
+  <si>
+    <t>M5X</t>
+  </si>
+  <si>
+    <t>M7X</t>
+  </si>
+  <si>
+    <t>M8X, M21X</t>
+  </si>
+  <si>
+    <t>M9X</t>
+  </si>
+  <si>
+    <t>M10X % M10X, M12X</t>
+  </si>
+  <si>
+    <t>M11X</t>
+  </si>
+  <si>
+    <t>M12X</t>
+  </si>
+  <si>
+    <t>M13X</t>
+  </si>
+  <si>
+    <t>M14X</t>
+  </si>
+  <si>
+    <t>M15X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -153,16 +214,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A635C-89FC-44BE-82EF-59DE5B63DCE1}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,10 +565,11 @@
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="2"/>
+    <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,117 +582,172 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>390</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F3" s="4">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>225</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="F4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>390</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>390</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>390</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>390</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>225</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="4">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>390</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>260</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -609,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35158A57-6756-49F2-BC24-2FD64A7749BD}">
   <dimension ref="B2:XFD23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,10 +770,11 @@
     <col min="3" max="3" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="2"/>
+    <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,10 +787,16 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="str">
-        <f>"M"&amp;XFD3&amp;"X"</f>
+        <f t="shared" ref="B3:B23" si="0">"M"&amp;XFD3&amp;"X"</f>
         <v>M1X</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -651,51 +808,69 @@
       <c r="E3" s="2">
         <v>94.6</v>
       </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
       <c r="XFD3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="str">
-        <f>"M"&amp;XFD4&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M2X</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>112.25</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>113.4</v>
       </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
       <c r="XFD4" s="2">
-        <f>XFD3+1</f>
+        <f t="shared" ref="XFD4:XFD23" si="1">XFD3+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="str">
-        <f>"M"&amp;XFD5&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M3X</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>97.75</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>113.4</v>
       </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
       <c r="XFD5" s="2">
-        <f>XFD4+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="str">
-        <f>"M"&amp;XFD6&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M4X</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -707,14 +882,20 @@
       <c r="E6" s="2">
         <v>52</v>
       </c>
+      <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
       <c r="XFD6" s="2">
-        <f>XFD5+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="str">
-        <f>"M"&amp;XFD7&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M5X</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -726,52 +907,70 @@
       <c r="E7" s="2">
         <v>94.6</v>
       </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7</v>
+      </c>
       <c r="XFD7" s="2">
-        <f>XFD6+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="str">
-        <f>"M"&amp;XFD8&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M6X</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2">
         <v>113.4</v>
       </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
       <c r="XFD8" s="2">
-        <f>XFD7+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="str">
-        <f>"M"&amp;XFD9&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M7X</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>164.5</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2">
         <v>113.4</v>
       </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
       <c r="XFD9" s="2">
-        <f>XFD8+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="str">
-        <f>"M"&amp;XFD10&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M8X</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -783,14 +982,20 @@
       <c r="E10" s="2">
         <v>52</v>
       </c>
+      <c r="F10" s="2">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
       <c r="XFD10" s="2">
-        <f>XFD9+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="str">
-        <f>"M"&amp;XFD11&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M9X</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -803,14 +1008,20 @@
         <f>113.4+94.6</f>
         <v>208</v>
       </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
       <c r="XFD11" s="2">
-        <f>XFD10+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="str">
-        <f>"M"&amp;XFD12&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M10X</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -822,14 +1033,20 @@
       <c r="E12" s="2">
         <v>260</v>
       </c>
+      <c r="F12" s="2">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
       <c r="XFD12" s="2">
-        <f>XFD11+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="str">
-        <f>"M"&amp;XFD13&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M11X</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -841,14 +1058,20 @@
       <c r="E13" s="2">
         <v>260</v>
       </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
       <c r="XFD13" s="2">
-        <f>XFD12+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="str">
-        <f>"M"&amp;XFD14&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M12X</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -860,14 +1083,20 @@
       <c r="E14" s="2">
         <v>260</v>
       </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
       <c r="XFD14" s="2">
-        <f>XFD13+1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="str">
-        <f>"M"&amp;XFD15&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M13X</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -879,14 +1108,20 @@
       <c r="E15" s="2">
         <v>94.6</v>
       </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
       <c r="XFD15" s="2">
-        <f>XFD14+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="str">
-        <f>"M"&amp;XFD16&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M14X</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -898,14 +1133,20 @@
       <c r="E16" s="2">
         <v>113.4</v>
       </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
       <c r="XFD16" s="2">
-        <f>XFD15+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="str">
-        <f>"M"&amp;XFD17&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M15X</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -917,14 +1158,20 @@
       <c r="E17" s="2">
         <v>113.4</v>
       </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
       <c r="XFD17" s="2">
-        <f>XFD16+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="str">
-        <f>"M"&amp;XFD18&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M16X</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -936,14 +1183,20 @@
       <c r="E18" s="2">
         <v>52</v>
       </c>
+      <c r="F18" s="2">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6</v>
+      </c>
       <c r="XFD18" s="2">
-        <f>XFD17+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="str">
-        <f>"M"&amp;XFD19&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M17X</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -956,14 +1209,20 @@
         <f>113.4+94.6</f>
         <v>208</v>
       </c>
+      <c r="F19" s="2">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14</v>
+      </c>
       <c r="XFD19" s="2">
-        <f>XFD18+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="str">
-        <f>"M"&amp;XFD20&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M18X</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -975,14 +1234,20 @@
       <c r="E20" s="2">
         <v>94.6</v>
       </c>
+      <c r="F20" s="2">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15</v>
+      </c>
       <c r="XFD20" s="2">
-        <f>XFD19+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="str">
-        <f>"M"&amp;XFD21&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M19X</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -994,14 +1259,20 @@
       <c r="E21" s="2">
         <v>113.4</v>
       </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
       <c r="XFD21" s="2">
-        <f>XFD20+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="str">
-        <f>"M"&amp;XFD22&amp;"X"</f>
+        <f t="shared" si="0"/>
         <v>M20X</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1013,31 +1284,201 @@
       <c r="E22" s="2">
         <v>113.4</v>
       </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>16</v>
+      </c>
       <c r="XFD22" s="2">
-        <f>XFD21+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:5 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="str">
-        <f>"M"&amp;XFD23&amp;"X"</f>
+    <row r="23" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>M21X</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>510</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>52</v>
       </c>
+      <c r="F23" s="5">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5">
+        <v>9</v>
+      </c>
       <c r="XFD23" s="2">
-        <f>XFD22+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43D1540-3C5B-4A3C-993F-E678E3EE0B79}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tarea 03/muros.xlsx
+++ b/Tarea 03/muros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0F4BAEA-BF49-4220-837B-945F7306AEEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6E5903C-9E5D-4C61-96F8-CA8D8836C22E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,8 @@
     <sheet name="PIERS" sheetId="1" r:id="rId1"/>
     <sheet name="EJE Y" sheetId="2" r:id="rId2"/>
     <sheet name="EJE X" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="GEOMETRIA" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Ejes</t>
   </si>
@@ -115,9 +116,6 @@
     <t>Piers</t>
   </si>
   <si>
-    <t>M1Y, M3Y, M4Y, M5, M6Y, M8Y</t>
-  </si>
-  <si>
     <t>M2Y, M7Y</t>
   </si>
   <si>
@@ -145,22 +143,28 @@
     <t>M9X</t>
   </si>
   <si>
-    <t>M10X % M10X, M12X</t>
-  </si>
-  <si>
     <t>M11X</t>
   </si>
   <si>
     <t>M12X</t>
   </si>
   <si>
-    <t>M13X</t>
-  </si>
-  <si>
-    <t>M14X</t>
-  </si>
-  <si>
-    <t>M15X</t>
+    <t>$\phi$ (mm)</t>
+  </si>
+  <si>
+    <t>M10X</t>
+  </si>
+  <si>
+    <t>M1Y, M3Y, M4Y, M5Y, M6Y, M8Y</t>
+  </si>
+  <si>
+    <t>M18X</t>
+  </si>
+  <si>
+    <t>M20X</t>
+  </si>
+  <si>
+    <t>M17X</t>
   </si>
 </sst>
 </file>
@@ -168,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,15 +191,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,20 +233,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,7 +257,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -274,6 +278,1401 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EJE X'!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EJE X'!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2FF-4002-ADE0-E2F55061D9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EJE X'!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EJE X'!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2FF-4002-ADE0-E2F55061D9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EJE X'!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EJE X'!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2FF-4002-ADE0-E2F55061D9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="481191472"/>
+        <c:axId val="481188520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="481191472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481188520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="481188520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481191472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C88BAD9-7312-4ED5-AAE1-B6408E0FF852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,23 +1952,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A635C-89FC-44BE-82EF-59DE5B63DCE1}">
-  <dimension ref="B2:H10"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -589,7 +1989,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>G3</f>
+        <v>1</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -597,10 +2001,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
+        <v>260</v>
+      </c>
+      <c r="E3" s="4">
         <v>390</v>
-      </c>
-      <c r="E3" s="4">
-        <v>260</v>
       </c>
       <c r="F3" s="4">
         <v>12</v>
@@ -610,7 +2014,11 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A10" si="0">G4</f>
+        <v>2</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -618,10 +2026,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="4">
+        <v>260</v>
+      </c>
+      <c r="E4" s="4">
         <v>225</v>
-      </c>
-      <c r="E4" s="4">
-        <v>260</v>
       </c>
       <c r="F4" s="4">
         <v>12</v>
@@ -630,7 +2038,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -638,10 +2050,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="4">
+        <v>260</v>
+      </c>
+      <c r="E5" s="4">
         <v>390</v>
-      </c>
-      <c r="E5" s="4">
-        <v>260</v>
       </c>
       <c r="F5" s="4">
         <v>12</v>
@@ -650,7 +2062,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -658,10 +2074,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="4">
+        <v>260</v>
+      </c>
+      <c r="E6" s="4">
         <v>390</v>
-      </c>
-      <c r="E6" s="4">
-        <v>260</v>
       </c>
       <c r="F6" s="4">
         <v>12</v>
@@ -670,7 +2086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -678,10 +2098,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4">
+        <v>260</v>
+      </c>
+      <c r="E7" s="4">
         <v>390</v>
-      </c>
-      <c r="E7" s="4">
-        <v>260</v>
       </c>
       <c r="F7" s="4">
         <v>12</v>
@@ -690,7 +2110,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -698,10 +2122,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="4">
+        <v>260</v>
+      </c>
+      <c r="E8" s="4">
         <v>390</v>
-      </c>
-      <c r="E8" s="4">
-        <v>260</v>
       </c>
       <c r="F8" s="4">
         <v>12</v>
@@ -710,7 +2134,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -718,10 +2146,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="4">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4">
         <v>225</v>
-      </c>
-      <c r="E9" s="4">
-        <v>260</v>
       </c>
       <c r="F9" s="4">
         <v>12</v>
@@ -730,7 +2158,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
@@ -738,10 +2170,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="5">
+        <v>260</v>
+      </c>
+      <c r="E10" s="5">
         <v>390</v>
-      </c>
-      <c r="E10" s="5">
-        <v>260</v>
       </c>
       <c r="F10" s="5">
         <v>12</v>
@@ -757,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35158A57-6756-49F2-BC24-2FD64A7749BD}">
-  <dimension ref="B2:XFD23"/>
+  <dimension ref="A2:XFD23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="B3:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,13 +2200,12 @@
     <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -794,529 +2225,613 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3:B23" si="0">"M"&amp;XFD3&amp;"X"</f>
+    <row r="3" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>G3</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>"M"&amp;XFD3&amp;"X"</f>
         <v>M1X</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
+        <v>94.6</v>
+      </c>
+      <c r="E3" s="7">
         <v>330</v>
       </c>
-      <c r="E3" s="2">
-        <v>94.6</v>
-      </c>
-      <c r="F3" s="2">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="7">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7">
         <v>3</v>
       </c>
       <c r="XFD3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="str">
+    <row r="4" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>G4</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f>"M"&amp;XFD4&amp;"X"</f>
+        <v>M2X</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>112</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="XFD4" s="2">
+        <f t="shared" ref="XFD4:XFD23" si="0">XFD3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>G5</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f>"M"&amp;XFD5&amp;"X"</f>
+        <v>M3X</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="XFD5" s="2">
         <f t="shared" si="0"/>
-        <v>M2X</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>G6</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>"M"&amp;XFD6&amp;"X"</f>
+        <v>M4X</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
-        <v>112</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D6" s="7">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7">
+        <v>330</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="XFD6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>G7</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>"M"&amp;XFD7&amp;"X"</f>
+        <v>M5X</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>94.6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>382</v>
+      </c>
+      <c r="F7" s="7">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7</v>
+      </c>
+      <c r="XFD7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>G8</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f>"M"&amp;XFD8&amp;"X"</f>
+        <v>M6X</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7">
         <v>113.4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E8" s="7">
+        <v>98</v>
+      </c>
+      <c r="F8" s="7">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="XFD4" s="2">
-        <f t="shared" ref="XFD4:XFD23" si="1">XFD3+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="str">
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="XFD8" s="2">
         <f t="shared" si="0"/>
-        <v>M3X</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>98</v>
-      </c>
-      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>G9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f>"M"&amp;XFD9&amp;"X"</f>
+        <v>M7X</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7">
         <v>113.4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E9" s="7">
+        <v>164</v>
+      </c>
+      <c r="F9" s="7">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="XFD5" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="str">
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="XFD9" s="2">
         <f t="shared" si="0"/>
-        <v>M4X</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>330</v>
-      </c>
-      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>G10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f>"M"&amp;XFD10&amp;"X"</f>
+        <v>M8X</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7">
         <v>52</v>
       </c>
-      <c r="F6" s="2">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6</v>
-      </c>
-      <c r="XFD6" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="str">
+      <c r="E10" s="7">
+        <v>510</v>
+      </c>
+      <c r="F10" s="7">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9</v>
+      </c>
+      <c r="XFD10" s="2">
         <f t="shared" si="0"/>
-        <v>M5X</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>G11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f>"M"&amp;XFD11&amp;"X"</f>
+        <v>M9X</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2">
-        <v>382</v>
-      </c>
-      <c r="E7" s="2">
-        <v>94.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7</v>
-      </c>
-      <c r="XFD7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M6X</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>98</v>
-      </c>
-      <c r="E8" s="2">
-        <v>113.4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="XFD8" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M7X</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>164</v>
-      </c>
-      <c r="E9" s="2">
-        <v>113.4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
-        <v>8</v>
-      </c>
-      <c r="XFD9" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M8X</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>510</v>
-      </c>
-      <c r="E10" s="2">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9</v>
-      </c>
-      <c r="XFD10" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M9X</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="7">
         <f>113.4+94.6</f>
         <v>208</v>
       </c>
-      <c r="F11" s="2">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="E11" s="7">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7">
         <v>10</v>
       </c>
       <c r="XFD11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="str">
+    <row r="12" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>G12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>"M"&amp;XFD12&amp;"X"</f>
+        <v>M10X</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>260</v>
+      </c>
+      <c r="E12" s="7">
+        <v>232</v>
+      </c>
+      <c r="F12" s="7">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7">
+        <v>11</v>
+      </c>
+      <c r="XFD12" s="2">
         <f t="shared" si="0"/>
-        <v>M10X</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>G13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f>"M"&amp;XFD13&amp;"X"</f>
+        <v>M11X</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>260</v>
+      </c>
+      <c r="E13" s="7">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7">
+        <v>12</v>
+      </c>
+      <c r="XFD13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>G14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f>"M"&amp;XFD14&amp;"X"</f>
+        <v>M12X</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
+        <v>260</v>
+      </c>
+      <c r="E14" s="7">
         <v>232</v>
       </c>
-      <c r="E12" s="2">
-        <v>260</v>
-      </c>
-      <c r="F12" s="2">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2">
-        <v>11</v>
-      </c>
-      <c r="XFD12" s="2">
-        <f t="shared" si="1"/>
+      <c r="F14" s="7">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7">
+        <v>13</v>
+      </c>
+      <c r="XFD14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>G15</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f>"M"&amp;XFD15&amp;"X"</f>
+        <v>M13X</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <v>94.6</v>
+      </c>
+      <c r="E15" s="7">
+        <v>330</v>
+      </c>
+      <c r="F15" s="7">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3</v>
+      </c>
+      <c r="XFD15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>G16</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f>"M"&amp;XFD16&amp;"X"</f>
+        <v>M14X</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>112</v>
+      </c>
+      <c r="F16" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="str">
+      <c r="G16" s="7">
+        <v>4</v>
+      </c>
+      <c r="XFD16" s="2">
         <f t="shared" si="0"/>
-        <v>M11X</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>277</v>
-      </c>
-      <c r="E13" s="2">
-        <v>260</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2">
-        <v>12</v>
-      </c>
-      <c r="XFD13" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f>G17</f>
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f>"M"&amp;XFD17&amp;"X"</f>
+        <v>M15X</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="XFD17" s="2">
         <f t="shared" si="0"/>
-        <v>M12X</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2">
-        <v>232</v>
-      </c>
-      <c r="E14" s="2">
-        <v>260</v>
-      </c>
-      <c r="F14" s="2">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>13</v>
-      </c>
-      <c r="XFD14" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f>G18</f>
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f>"M"&amp;XFD18&amp;"X"</f>
+        <v>M16X</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7">
+        <v>52</v>
+      </c>
+      <c r="E18" s="7">
+        <v>330</v>
+      </c>
+      <c r="F18" s="7">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6</v>
+      </c>
+      <c r="XFD18" s="2">
         <f t="shared" si="0"/>
-        <v>M13X</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>330</v>
-      </c>
-      <c r="E15" s="2">
-        <v>94.6</v>
-      </c>
-      <c r="F15" s="2">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3</v>
-      </c>
-      <c r="XFD15" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M14X</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2">
-        <v>112</v>
-      </c>
-      <c r="E16" s="2">
-        <v>113.4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="XFD16" s="2">
-        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f>G19</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M15X</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2">
-        <v>98</v>
-      </c>
-      <c r="E17" s="2">
-        <v>113.4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="XFD17" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>M16X</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2">
-        <v>330</v>
-      </c>
-      <c r="E18" s="2">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>6</v>
-      </c>
-      <c r="XFD18" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="B19" s="7" t="str">
+        <f>"M"&amp;XFD19&amp;"X"</f>
         <v>M17X</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2">
-        <v>97</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="7">
         <f>113.4+94.6</f>
         <v>208</v>
       </c>
-      <c r="F19" s="2">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="E19" s="7">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7">
         <v>14</v>
       </c>
       <c r="XFD19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="str">
+    <row r="20" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f>G20</f>
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f>"M"&amp;XFD20&amp;"X"</f>
+        <v>M18X</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7">
+        <v>94.6</v>
+      </c>
+      <c r="E20" s="7">
+        <v>322</v>
+      </c>
+      <c r="F20" s="7">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7">
+        <v>15</v>
+      </c>
+      <c r="XFD20" s="2">
         <f t="shared" si="0"/>
-        <v>M18X</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f>G21</f>
+        <v>8</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f>"M"&amp;XFD21&amp;"X"</f>
+        <v>M19X</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="2">
-        <v>322</v>
-      </c>
-      <c r="E20" s="2">
-        <v>94.6</v>
-      </c>
-      <c r="F20" s="2">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2">
-        <v>15</v>
-      </c>
-      <c r="XFD20" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="str">
+      <c r="D21" s="7">
+        <v>113.4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>164</v>
+      </c>
+      <c r="F21" s="7">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8</v>
+      </c>
+      <c r="XFD21" s="2">
         <f t="shared" si="0"/>
-        <v>M19X</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f>G22</f>
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f>"M"&amp;XFD22&amp;"X"</f>
+        <v>M20X</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2">
-        <v>164</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D22" s="7">
         <v>113.4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="E22" s="7">
+        <v>37</v>
+      </c>
+      <c r="F22" s="7">
         <v>10</v>
       </c>
-      <c r="G21" s="2">
-        <v>8</v>
-      </c>
-      <c r="XFD21" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="str">
+      <c r="G22" s="7">
+        <v>16</v>
+      </c>
+      <c r="XFD22" s="2">
         <f t="shared" si="0"/>
-        <v>M20X</v>
-      </c>
-      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f>G23</f>
+        <v>9</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>"M"&amp;XFD23&amp;"X"</f>
+        <v>M21X</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="2">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2">
-        <v>113.4</v>
-      </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <v>16</v>
-      </c>
-      <c r="XFD22" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7 16384:16384" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="str">
+      <c r="D23" s="8">
+        <v>52</v>
+      </c>
+      <c r="E23" s="8">
+        <v>510</v>
+      </c>
+      <c r="F23" s="8">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8">
+        <v>9</v>
+      </c>
+      <c r="XFD23" s="2">
         <f t="shared" si="0"/>
-        <v>M21X</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="5">
-        <v>510</v>
-      </c>
-      <c r="E23" s="5">
-        <v>52</v>
-      </c>
-      <c r="F23" s="5">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5">
-        <v>9</v>
-      </c>
-      <c r="XFD23" s="2">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -1327,158 +2842,375 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43D1540-3C5B-4A3C-993F-E678E3EE0B79}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="2"/>
-    <col min="3" max="3" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <f>VLOOKUP($B3,'EJE Y'!$A$3:$G$10,4)</f>
+        <v>260</v>
+      </c>
+      <c r="E3" s="2">
+        <f>VLOOKUP($B3,'EJE Y'!$A$3:$G$10,5)</f>
+        <v>390</v>
+      </c>
+      <c r="F3" s="2">
+        <f>VLOOKUP($B3,'EJE Y'!$A$3:$G$10,6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <f>VLOOKUP($B4,'EJE Y'!$A$3:$G$10,4)</f>
+        <v>260</v>
+      </c>
+      <c r="E4" s="2">
+        <f>VLOOKUP($B4,'EJE Y'!$A$3:$G$10,5)</f>
+        <v>225</v>
+      </c>
+      <c r="F4" s="2">
+        <f>VLOOKUP($B4,'EJE Y'!$A$3:$G$10,6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'EJE X'!D3</f>
+        <v>94.6</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'EJE X'!E3</f>
+        <v>330</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'EJE X'!F3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'EJE X'!D4</f>
+        <v>113.4</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'EJE X'!E4</f>
+        <v>112</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'EJE X'!F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <f>'EJE X'!D17</f>
+        <v>113.4</v>
+      </c>
+      <c r="E7" s="2">
+        <f>'EJE X'!E17</f>
+        <v>98</v>
+      </c>
+      <c r="F7" s="2">
+        <f>'EJE X'!F17</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2">
+        <f>'EJE X'!D6</f>
+        <v>52</v>
+      </c>
+      <c r="E8" s="2">
+        <f>'EJE X'!E6</f>
+        <v>330</v>
+      </c>
+      <c r="F8" s="2">
+        <f>'EJE X'!F6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2">
+        <f>'EJE X'!D7</f>
+        <v>94.6</v>
+      </c>
+      <c r="E9" s="2">
+        <f>'EJE X'!E7</f>
+        <v>382</v>
+      </c>
+      <c r="F9" s="2">
+        <f>'EJE X'!F7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2">
+        <f>'EJE X'!D9</f>
+        <v>113.4</v>
+      </c>
+      <c r="E10" s="2">
+        <f>'EJE X'!E9</f>
+        <v>164</v>
+      </c>
+      <c r="F10" s="2">
+        <f>'EJE X'!F9</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
+        <f>'EJE X'!D10</f>
+        <v>52</v>
+      </c>
+      <c r="E11" s="2">
+        <f>'EJE X'!E10</f>
+        <v>510</v>
+      </c>
+      <c r="F11" s="2">
+        <f>'EJE X'!F10</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2">
+        <f>'EJE X'!D11</f>
+        <v>208</v>
+      </c>
+      <c r="E12" s="2">
+        <f>'EJE X'!E11</f>
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <f>'EJE X'!F11</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2">
+        <f>'EJE X'!D12</f>
+        <v>260</v>
+      </c>
+      <c r="E13" s="2">
+        <f>'EJE X'!E12</f>
+        <v>232</v>
+      </c>
+      <c r="F13" s="2">
+        <f>'EJE X'!F12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2">
+        <f>'EJE X'!D13</f>
+        <v>260</v>
+      </c>
+      <c r="E14" s="2">
+        <f>'EJE X'!E13</f>
+        <v>277</v>
+      </c>
+      <c r="F14" s="2">
+        <f>'EJE X'!F13</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <f>'EJE X'!D14</f>
+        <v>260</v>
+      </c>
+      <c r="E15" s="2">
+        <f>'EJE X'!E14</f>
+        <v>232</v>
+      </c>
+      <c r="F15" s="2">
+        <f>'EJE X'!F14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2">
+        <f>'EJE X'!D19</f>
+        <v>208</v>
+      </c>
+      <c r="E16" s="2">
+        <f>'EJE X'!E19</f>
+        <v>97</v>
+      </c>
+      <c r="F16" s="2">
+        <f>'EJE X'!F19</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="7">
+      <c r="D17" s="2">
+        <f>'EJE X'!D20</f>
+        <v>94.6</v>
+      </c>
+      <c r="E17" s="2">
+        <f>'EJE X'!E20</f>
+        <v>322</v>
+      </c>
+      <c r="F17" s="2">
+        <f>'EJE X'!F20</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="D18" s="5">
+        <f>'EJE X'!D22</f>
+        <v>113.4</v>
+      </c>
+      <c r="E18" s="5">
+        <f>'EJE X'!E22</f>
+        <v>37</v>
+      </c>
+      <c r="F18" s="5">
+        <f>'EJE X'!F22</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A048F03-18CA-45EA-B41C-80B6364C62C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>